--- a/PATH/Kim Invoice Rubric.xlsx
+++ b/PATH/Kim Invoice Rubric.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Contact IRBs and Nielsen for data</t>
+  </si>
+  <si>
+    <t>Updates with David + aggregate leisure/lifestyle questions on MTF</t>
+  </si>
+  <si>
+    <t>aggregate lifestyle questions on MTF</t>
+  </si>
+  <si>
+    <t>Read in MTF years 200)+ data for smoking trends</t>
+  </si>
+  <si>
+    <t>Process MTF data for 2000-2019</t>
+  </si>
+  <si>
+    <t>Tab ever smoke variable 2000-2019</t>
+  </si>
+  <si>
+    <t>Process 2000-2019 MTF data to create youth groups on life expectations, future plans, etc.</t>
   </si>
 </sst>
 </file>
@@ -180,7 +198,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,6 +240,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,7 +573,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,7 +586,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -570,7 +594,7 @@
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -762,33 +786,99 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" ref="E16" si="1">D16*40</f>
+        <f t="shared" ref="E16:E17" si="1">D16*40</f>
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="15">
+        <v>44165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
+        <v>44166</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" ref="E18" si="2">D18*40</f>
+        <v>40</v>
+      </c>
+    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="17">
+        <v>44167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" ref="E19" si="3">D19*40</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="C20"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="17">
+        <v>44168</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20" si="4">D20*40</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
-      <c r="C21"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
-      <c r="C22"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="7"/>
+      <c r="B21" s="15">
+        <v>44171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21" si="5">D21*40</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B22" s="15">
+        <v>44172</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" ref="E22" si="6">D22*40</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
@@ -832,7 +922,7 @@
       </c>
       <c r="E29" s="8">
         <f>SUM(E5:E27)</f>
-        <v>820</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,7 +1051,7 @@
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5"/>
@@ -972,7 +1062,7 @@
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>

--- a/PATH/Kim Invoice Rubric.xlsx
+++ b/PATH/Kim Invoice Rubric.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Process 2000-2019 MTF data to create youth groups on life expectations, future plans, etc.</t>
+  </si>
+  <si>
+    <t>Factor Analysis for 2013 MTF future outlook, social media, parental background groups</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,11 +883,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="7"/>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B23" s="15">
+        <v>44172</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" ref="E23" si="7">D23*40</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
@@ -922,7 +934,7 @@
       </c>
       <c r="E29" s="8">
         <f>SUM(E5:E27)</f>
-        <v>1220</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">

--- a/PATH/Kim Invoice Rubric.xlsx
+++ b/PATH/Kim Invoice Rubric.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Factor Analysis for 2013 MTF future outlook, social media, parental background groups</t>
+  </si>
+  <si>
+    <t>Clean up 2013 8/10th MTF data for FA and figure out NA issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean ALL years MTF data for FA </t>
   </si>
 </sst>
 </file>
@@ -576,7 +582,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,7 +891,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="15">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -899,16 +905,34 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="15">
+        <v>44174</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" ref="E24" si="8">D24*40</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="15">
+        <v>44175</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" ref="E25" si="9">D25*40</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
@@ -934,7 +958,7 @@
       </c>
       <c r="E29" s="8">
         <f>SUM(E5:E27)</f>
-        <v>1320</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">

--- a/PATH/Kim Invoice Rubric.xlsx
+++ b/PATH/Kim Invoice Rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="6800" yWindow="-21140" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Fees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">Clean ALL years MTF data for FA </t>
+  </si>
+  <si>
+    <t>2013-2019 factor analysis</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -935,36 +938,58 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="15">
+        <v>43843</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" ref="E26" si="10">D26*40</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="15">
+        <v>43844</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" ref="E27" si="11">D27*40</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="15">
+        <v>43845</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" ref="E28" si="12">D28*40</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E5:E27)</f>
-        <v>1440</v>
-      </c>
+      <c r="B29" s="15"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
-      <c r="C30"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -974,10 +999,13 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
-      <c r="C32"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="7"/>
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="8">
+        <f>SUM(E5:E27)</f>
+        <v>1620</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
@@ -1056,6 +1084,24 @@
       <c r="C45"/>
       <c r="D45" s="16"/>
       <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+      <c r="C46"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="15"/>
+      <c r="C47"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="15"/>
+      <c r="C48"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PATH/Kim Invoice Rubric.xlsx
+++ b/PATH/Kim Invoice Rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="-21140" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Fees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,22 +975,42 @@
         <v>30</v>
       </c>
       <c r="D28" s="18">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" ref="E28" si="12">D28*40</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="15">
+        <v>43846</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" ref="E29" si="13">D29*40</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="15">
+        <v>43849</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" ref="E30" si="14">D30*40</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>

--- a/PATH/Kim Invoice Rubric.xlsx
+++ b/PATH/Kim Invoice Rubric.xlsx
@@ -1005,11 +1005,11 @@
         <v>30</v>
       </c>
       <c r="D30" s="18">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30" si="14">D30*40</f>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
